--- a/Dados 2.0/Planilha Graficos Artigo.xlsx
+++ b/Dados 2.0/Planilha Graficos Artigo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projetos\sumo_testes\Dados 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA95E6-657A-4337-ACF3-AA42973E2227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F5DB1-AC78-42B5-847D-81E86DB7F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4AA32B2-D915-4A41-AE9A-0CAAF0028A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Recall</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Miss Rate (FNR)</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,19 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -235,12 +250,330 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7D6-43E8-80F4-8C635F230587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9BEE-40BD-826A-56E1509B4C9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7D6-43E8-80F4-8C635F230587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -301,18 +634,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$E$2</c:f>
+              <c:f>Planilha1!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -323,20 +656,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7D6-43E8-80F4-8C635F230587}"/>
+              <c16:uniqueId val="{00000000-9BEE-40BD-826A-56E1509B4C9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$3</c:f>
+              <c:f>Planilha1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
+                  <c:v>Miss Rate (FNR)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -344,71 +677,27 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Planilha1!$B$1:$E$1</c:f>
@@ -432,21 +721,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$E$3</c:f>
+              <c:f>Planilha1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.88</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,7 +743,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7D6-43E8-80F4-8C635F230587}"/>
+              <c16:uniqueId val="{00000001-9BEE-40BD-826A-56E1509B4C9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -466,6 +755,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1749019888"/>
         <c:axId val="1928264000"/>
@@ -497,7 +787,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Fraud</a:t>
                 </a:r>
               </a:p>
@@ -554,12 +848,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -580,6 +871,7 @@
         <c:axId val="1928264000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -597,61 +889,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -668,12 +905,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -686,6 +920,7 @@
         <c:crossAx val="1749019888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -703,8 +938,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.85051321587412543"/>
           <c:y val="0.44011278181185215"/>
-          <c:w val="0.13904291989610959"/>
-          <c:h val="0.15024607113710167"/>
+          <c:w val="0.13574907775836301"/>
+          <c:h val="0.20385191216392318"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -720,12 +955,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -803,10 +1035,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -815,13 +1044,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Random Error Fraud</a:t>
+              <a:t>Random Error Fraud Fixed at 8%</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Fixed at 8%</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -840,10 +1064,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -873,7 +1094,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -884,18 +1117,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -990,6 +1218,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1701410640"/>
         <c:axId val="1700217648"/>
@@ -1023,12 +1252,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1049,6 +1275,7 @@
         <c:axId val="1700217648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1084,10 +1311,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1100,6 +1324,7 @@
         <c:crossAx val="1701410640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1140,7 +1365,847 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gauss error fraud fixed at 8%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$N$19:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$19:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A058-4A41-AB2B-A7A1B347336C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="240662096"/>
+        <c:axId val="1334072000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="240662096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334072000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334072000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240662096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Random Stations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36600678040244972"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$N$39:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$39:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C0F-4474-A819-D309799C614F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1345569840"/>
+        <c:axId val="1334076960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1345569840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="1" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Stations Frauded</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334076960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334076960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1345569840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -1233,6 +2298,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1750,6 +2895,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2271,14 +4448,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2306,15 +4483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2334,6 +4511,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC4FC9A-6AD3-27B8-9AED-AC66CC5801B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B990077F-3EA0-BCBC-6329-20F0508B57FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2639,13 +4888,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298044E-08D1-4590-8548-962B935F44D3}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2705,6 +4959,21 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.94</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>0.98</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="N4" t="s">
         <v>4</v>
       </c>
@@ -2713,6 +4982,21 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="N5" t="s">
         <v>1</v>
       </c>
@@ -2729,6 +5013,78 @@
         <v>0.96</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O39">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O40">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O41">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O42">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O43">
+        <v>0.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Dados 2.0/Planilha Graficos Artigo.xlsx
+++ b/Dados 2.0/Planilha Graficos Artigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projetos\sumo_testes\Dados 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F5DB1-AC78-42B5-847D-81E86DB7F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DA569-D89D-4025-B1FC-A7E13A4E304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4AA32B2-D915-4A41-AE9A-0CAAF0028A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Recall</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Miss Rate (FNR)</t>
+  </si>
+  <si>
+    <t>Hit Rate(FPR)</t>
   </si>
 </sst>
 </file>
@@ -378,45 +381,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9BEE-40BD-826A-56E1509B4C9E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -665,12 +629,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$5</c:f>
+              <c:f>Planilha1!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Miss Rate (FNR)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -721,22 +682,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$5:$E$5</c:f>
+              <c:f>Planilha1!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -932,6 +881,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2218,6 +2171,710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miss Rate (FNR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FA7-477E-923B-3770F19AF725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hit Rate(FPR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBDA-4B91-AA17-68C7BDC44C1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1068915631"/>
+        <c:axId val="1073164159"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fraud</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$35:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$35:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6FA7-477E-923B-3770F19AF725}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1068915631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="1" u="sng">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fraud</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073164159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1073164159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068915631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2378,6 +3035,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3927,6 +4624,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4447,15 +5660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35615</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4583,6 +5796,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314738</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203CAEC6-97FF-3377-3380-A04275C1986A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4888,10 +6137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298044E-08D1-4590-8548-962B935F44D3}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4982,21 +6231,6 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="N5" t="s">
         <v>1</v>
       </c>
@@ -5045,7 +6279,58 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N39" s="1">
         <v>0.1</v>
       </c>
@@ -5053,7 +6338,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N40" s="1">
         <v>0.2</v>
       </c>
@@ -5061,7 +6346,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N41" s="1">
         <v>0.3</v>
       </c>
@@ -5069,7 +6354,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N42" s="1">
         <v>0.4</v>
       </c>
@@ -5077,7 +6362,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N43" s="1">
         <v>0.5</v>
       </c>
@@ -5085,6 +6370,9 @@
         <v>0.59</v>
       </c>
     </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Dados 2.0/Planilha Graficos Artigo.xlsx
+++ b/Dados 2.0/Planilha Graficos Artigo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projetos\sumo_testes\Dados 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projetos\sumo_testes\Dados 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DA569-D89D-4025-B1FC-A7E13A4E304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B0CD3-83B9-40F3-997F-C1F1A6506420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4AA32B2-D915-4A41-AE9A-0CAAF0028A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Recall</t>
   </si>
@@ -58,11 +58,20 @@
   <si>
     <t>Hit Rate(FPR)</t>
   </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,62 +145,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Fixed Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -255,7 +210,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -381,6 +336,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="3.9317220764071147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7C12-4970-A7FF-AE64D1EDDFFF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -395,7 +372,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -537,7 +514,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:srgbClr val="FFC000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -880,21 +857,11 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85051321587412543"/>
-          <c:y val="0.44011278181185215"/>
-          <c:w val="0.13574907775836301"/>
-          <c:h val="0.20385191216392318"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -979,56 +946,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Random Error Fraud Fixed at 8%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1116,7 +1034,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$N$3:$N$6</c:f>
+              <c:f>Planilha1!$U$56:$U$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1136,377 +1054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$O$3:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FE7-42C0-8E03-6C387A3B0D17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1701410640"/>
-        <c:axId val="1700217648"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1701410640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1700217648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1700217648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1701410640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Gauss error fraud fixed at 8%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$N$19:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$O$19:$O$22</c:f>
+              <c:f>Planilha1!$V$56:$V$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1705,7 +1253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1719,64 +1267,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Random Stations</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.36600678040244972"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1867,7 +1358,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$N$39:$N$43</c:f>
+              <c:f>Planilha1!$C$59:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1891,7 +1382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$O$39:$O$43</c:f>
+              <c:f>Planilha1!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2171,7 +1662,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2196,7 +1687,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$36</c:f>
+              <c:f>Planilha1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2289,7 +1780,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$B$35:$E$35</c:f>
+              <c:f>Planilha1!$B$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2310,7 +1801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$36:$E$36</c:f>
+              <c:f>Planilha1!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2341,7 +1832,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$37</c:f>
+              <c:f>Planilha1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2434,7 +1925,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$37:$E$37</c:f>
+              <c:f>Planilha1!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2484,7 +1975,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Planilha1!$A$35</c15:sqref>
+                          <c15:sqref>Planilha1!$A$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2571,7 +2062,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Planilha1!$B$35:$E$35</c15:sqref>
+                          <c15:sqref>Planilha1!$B$22:$E$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2598,7 +2089,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Planilha1!$B$35:$E$35</c15:sqref>
+                          <c15:sqref>Planilha1!$B$22:$E$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2875,6 +2366,724 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$O$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54BF-42F7-9A1A-789BE122F700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$O$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54BF-42F7-9A1A-789BE122F700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1840332458442688E-2"/>
+                  <c:y val="6.9098133566637505E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-54BF-42F7-9A1A-789BE122F700}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$O$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54BF-42F7-9A1A-789BE122F700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1671414175"/>
+        <c:axId val="1667636591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1671414175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="1" i="0" u="sng">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Vehicle Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667636591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1667636591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671414175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5665,10 +5874,10 @@
       <xdr:rowOff>118234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35615</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5695,23 +5904,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165857</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>396115</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>112437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40904EBF-26E6-C776-ED9E-6651DC335A1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC4FC9A-6AD3-27B8-9AED-AC66CC5801B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5731,23 +5940,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292581</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423447</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC4FC9A-6AD3-27B8-9AED-AC66CC5801B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B990077F-3EA0-BCBC-6329-20F0508B57FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5767,23 +5976,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B990077F-3EA0-BCBC-6329-20F0508B57FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203CAEC6-97FF-3377-3380-A04275C1986A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,23 +6012,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>132521</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>61291</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314738</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>137491</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203CAEC6-97FF-3377-3380-A04275C1986A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26264AE3-AD89-BFF5-13ED-CF3111658A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6137,10 +6346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298044E-08D1-4590-8548-962B935F44D3}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6166,6 +6375,21 @@
       <c r="E1" s="1">
         <v>0.12</v>
       </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6183,6 +6407,21 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.71</v>
+      </c>
+      <c r="Q2">
+        <v>0.69</v>
+      </c>
+      <c r="R2">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6201,10 +6440,19 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.57999999999999996</v>
+        <v>0.98</v>
+      </c>
+      <c r="P3">
+        <v>0.96</v>
+      </c>
+      <c r="Q3">
+        <v>0.97</v>
+      </c>
+      <c r="R3">
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -6224,154 +6472,147 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>0.62</v>
+        <v>0.99</v>
+      </c>
+      <c r="P4">
+        <v>0.98</v>
+      </c>
+      <c r="Q4">
+        <v>0.94</v>
+      </c>
+      <c r="R4">
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0.93</v>
-      </c>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="U57" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="U58" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <v>0.94</v>
+      </c>
+      <c r="U59" t="s">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>0.96</v>
+      <c r="V59">
+        <v>0.98</v>
       </c>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0.86</v>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D60">
+        <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>0.91</v>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D61">
+        <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0.96</v>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D62">
+        <v>0.61</v>
       </c>
     </row>
-    <row r="22" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C36">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D36">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O39">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N40" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O40">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N41" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O41">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O42">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N43" s="1">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
         <v>0.5</v>
       </c>
-      <c r="O43">
+      <c r="D63">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
